--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.43561023466852</v>
+        <v>12.79549166666667</v>
       </c>
       <c r="H2">
-        <v>8.43561023466852</v>
+        <v>38.386475</v>
       </c>
       <c r="I2">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="J2">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.064019697605</v>
+        <v>32.30682666666667</v>
       </c>
       <c r="N2">
-        <v>31.064019697605</v>
+        <v>96.92048</v>
       </c>
       <c r="O2">
-        <v>0.8894227494912946</v>
+        <v>0.886587237369156</v>
       </c>
       <c r="P2">
-        <v>0.8894227494912946</v>
+        <v>0.8865872373691559</v>
       </c>
       <c r="Q2">
-        <v>262.0439624910612</v>
+        <v>413.3817313897777</v>
       </c>
       <c r="R2">
-        <v>262.0439624910612</v>
+        <v>3720.435582508</v>
       </c>
       <c r="S2">
-        <v>0.3663683636836951</v>
+        <v>0.4562332930322995</v>
       </c>
       <c r="T2">
-        <v>0.3663683636836951</v>
+        <v>0.4562332930322994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.43561023466852</v>
+        <v>12.79549166666667</v>
       </c>
       <c r="H3">
-        <v>8.43561023466852</v>
+        <v>38.386475</v>
       </c>
       <c r="I3">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="J3">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.72590733562956</v>
+        <v>0.7369563333333332</v>
       </c>
       <c r="N3">
-        <v>0.72590733562956</v>
+        <v>2.210869</v>
       </c>
       <c r="O3">
-        <v>0.02078412596362477</v>
+        <v>0.02022408719906369</v>
       </c>
       <c r="P3">
-        <v>0.02078412596362477</v>
+        <v>0.02022408719906369</v>
       </c>
       <c r="Q3">
-        <v>6.123471349857673</v>
+        <v>9.429718621863886</v>
       </c>
       <c r="R3">
-        <v>6.123471349857673</v>
+        <v>84.86746759677499</v>
       </c>
       <c r="S3">
-        <v>0.008561335117911259</v>
+        <v>0.01040721263795873</v>
       </c>
       <c r="T3">
-        <v>0.008561335117911259</v>
+        <v>0.01040721263795873</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.43561023466852</v>
+        <v>12.79549166666667</v>
       </c>
       <c r="H4">
-        <v>8.43561023466852</v>
+        <v>38.386475</v>
       </c>
       <c r="I4">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="J4">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.13611878173033</v>
+        <v>3.395752</v>
       </c>
       <c r="N4">
-        <v>3.13611878173033</v>
+        <v>10.187256</v>
       </c>
       <c r="O4">
-        <v>0.0897931245450805</v>
+        <v>0.09318867543178035</v>
       </c>
       <c r="P4">
-        <v>0.0897931245450805</v>
+        <v>0.09318867543178033</v>
       </c>
       <c r="Q4">
-        <v>26.45507569230054</v>
+        <v>43.45031641806666</v>
       </c>
       <c r="R4">
-        <v>26.45507569230054</v>
+        <v>391.0528477626</v>
       </c>
       <c r="S4">
-        <v>0.03698731579380337</v>
+        <v>0.0479544194564766</v>
       </c>
       <c r="T4">
-        <v>0.03698731579380337</v>
+        <v>0.04795441945647659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.80240131384717</v>
+        <v>9.803896</v>
       </c>
       <c r="H5">
-        <v>9.80240131384717</v>
+        <v>29.411688</v>
       </c>
       <c r="I5">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="J5">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.064019697605</v>
+        <v>32.30682666666667</v>
       </c>
       <c r="N5">
-        <v>31.064019697605</v>
+        <v>96.92048</v>
       </c>
       <c r="O5">
-        <v>0.8894227494912946</v>
+        <v>0.886587237369156</v>
       </c>
       <c r="P5">
-        <v>0.8894227494912946</v>
+        <v>0.8865872373691559</v>
       </c>
       <c r="Q5">
-        <v>304.5019874971777</v>
+        <v>316.7327687300266</v>
       </c>
       <c r="R5">
-        <v>304.5019874971777</v>
+        <v>2850.59491857024</v>
       </c>
       <c r="S5">
-        <v>0.425729689923993</v>
+        <v>0.3495656027254018</v>
       </c>
       <c r="T5">
-        <v>0.425729689923993</v>
+        <v>0.3495656027254017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.80240131384717</v>
+        <v>9.803896</v>
       </c>
       <c r="H6">
-        <v>9.80240131384717</v>
+        <v>29.411688</v>
       </c>
       <c r="I6">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="J6">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.72590733562956</v>
+        <v>0.7369563333333332</v>
       </c>
       <c r="N6">
-        <v>0.72590733562956</v>
+        <v>2.210869</v>
       </c>
       <c r="O6">
-        <v>0.02078412596362477</v>
+        <v>0.02022408719906369</v>
       </c>
       <c r="P6">
-        <v>0.02078412596362477</v>
+        <v>0.02022408719906369</v>
       </c>
       <c r="Q6">
-        <v>7.115635020506498</v>
+        <v>7.225043248541332</v>
       </c>
       <c r="R6">
-        <v>7.115635020506498</v>
+        <v>65.025389236872</v>
       </c>
       <c r="S6">
-        <v>0.009948496940173881</v>
+        <v>0.007973998421509119</v>
       </c>
       <c r="T6">
-        <v>0.009948496940173881</v>
+        <v>0.007973998421509119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.80240131384717</v>
+        <v>9.803896</v>
       </c>
       <c r="H7">
-        <v>9.80240131384717</v>
+        <v>29.411688</v>
       </c>
       <c r="I7">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="J7">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.13611878173033</v>
+        <v>3.395752</v>
       </c>
       <c r="N7">
-        <v>3.13611878173033</v>
+        <v>10.187256</v>
       </c>
       <c r="O7">
-        <v>0.0897931245450805</v>
+        <v>0.09318867543178035</v>
       </c>
       <c r="P7">
-        <v>0.0897931245450805</v>
+        <v>0.09318867543178033</v>
       </c>
       <c r="Q7">
-        <v>30.74149486641417</v>
+        <v>33.291599449792</v>
       </c>
       <c r="R7">
-        <v>30.74149486641417</v>
+        <v>299.624395048128</v>
       </c>
       <c r="S7">
-        <v>0.04298023531751114</v>
+        <v>0.03674263977807338</v>
       </c>
       <c r="T7">
-        <v>0.04298023531751114</v>
+        <v>0.03674263977807338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.24089545403696</v>
+        <v>2.265785</v>
       </c>
       <c r="H8">
-        <v>2.24089545403696</v>
+        <v>6.797355</v>
       </c>
       <c r="I8">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="J8">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.064019697605</v>
+        <v>32.30682666666667</v>
       </c>
       <c r="N8">
-        <v>31.064019697605</v>
+        <v>96.92048</v>
       </c>
       <c r="O8">
-        <v>0.8894227494912946</v>
+        <v>0.886587237369156</v>
       </c>
       <c r="P8">
-        <v>0.8894227494912946</v>
+        <v>0.8865872373691559</v>
       </c>
       <c r="Q8">
-        <v>69.61122052447763</v>
+        <v>73.20032325893334</v>
       </c>
       <c r="R8">
-        <v>69.61122052447763</v>
+        <v>658.8029093304</v>
       </c>
       <c r="S8">
-        <v>0.0973246958836065</v>
+        <v>0.08078834161145473</v>
       </c>
       <c r="T8">
-        <v>0.0973246958836065</v>
+        <v>0.08078834161145472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.24089545403696</v>
+        <v>2.265785</v>
       </c>
       <c r="H9">
-        <v>2.24089545403696</v>
+        <v>6.797355</v>
       </c>
       <c r="I9">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="J9">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.72590733562956</v>
+        <v>0.7369563333333332</v>
       </c>
       <c r="N9">
-        <v>0.72590733562956</v>
+        <v>2.210869</v>
       </c>
       <c r="O9">
-        <v>0.02078412596362477</v>
+        <v>0.02022408719906369</v>
       </c>
       <c r="P9">
-        <v>0.02078412596362477</v>
+        <v>0.02022408719906369</v>
       </c>
       <c r="Q9">
-        <v>1.626682448464363</v>
+        <v>1.669784605721667</v>
       </c>
       <c r="R9">
-        <v>1.626682448464363</v>
+        <v>15.028061451495</v>
       </c>
       <c r="S9">
-        <v>0.002274293905539628</v>
+        <v>0.001842876139595834</v>
       </c>
       <c r="T9">
-        <v>0.002274293905539628</v>
+        <v>0.001842876139595834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.24089545403696</v>
+        <v>2.265785</v>
       </c>
       <c r="H10">
-        <v>2.24089545403696</v>
+        <v>6.797355</v>
       </c>
       <c r="I10">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="J10">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.13611878173033</v>
+        <v>3.395752</v>
       </c>
       <c r="N10">
-        <v>3.13611878173033</v>
+        <v>10.187256</v>
       </c>
       <c r="O10">
-        <v>0.0897931245450805</v>
+        <v>0.09318867543178035</v>
       </c>
       <c r="P10">
-        <v>0.0897931245450805</v>
+        <v>0.09318867543178033</v>
       </c>
       <c r="Q10">
-        <v>7.027714321299426</v>
+        <v>7.694043945320001</v>
       </c>
       <c r="R10">
-        <v>7.027714321299426</v>
+        <v>69.24639550788</v>
       </c>
       <c r="S10">
-        <v>0.009825573433765984</v>
+        <v>0.008491616197230366</v>
       </c>
       <c r="T10">
-        <v>0.009825573433765984</v>
+        <v>0.008491616197230366</v>
       </c>
     </row>
   </sheetData>
